--- a/medicine/Enfance/Julia_Hartwig/Julia_Hartwig.xlsx
+++ b/medicine/Enfance/Julia_Hartwig/Julia_Hartwig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Hartwig-Międzyrzecka, née à Lublin (Pologne) le 14 août 1921 et morte le 14 juillet 2017 à Gouldsboro en Pennsylvanie (États-Unis)[1], est une écrivaine, poétesse, traductrice (notamment de textes littéraires français), auteur d'essais et auteur de livres pour enfants polonaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Hartwig-Międzyrzecka, née à Lublin (Pologne) le 14 août 1921 et morte le 14 juillet 2017 à Gouldsboro en Pennsylvanie (États-Unis), est une écrivaine, poétesse, traductrice (notamment de textes littéraires français), auteur d'essais et auteur de livres pour enfants polonaise.
 </t>
         </is>
       </c>
@@ -513,10 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Elle est née à Lublin. Elle étudie la littérature française et polonaise à l'Université de Varsovie puis poursuit ses études à l'Université catholique Jean-Paul II de Lublin[2].
-Carrière
-Elle publie en 1954 un recueil de poésie intitulé Z niedalekich podróży. Un deuxième recueil, Pożegnania est publié en 1956[3].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Elle est née à Lublin. Elle étudie la littérature française et polonaise à l'Université de Varsovie puis poursuit ses études à l'Université catholique Jean-Paul II de Lublin.
 </t>
         </is>
       </c>
@@ -542,10 +558,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle publie en 1954 un recueil de poésie intitulé Z niedalekich podróży. Un deuxième recueil, Pożegnania est publié en 1956.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Julia_Hartwig</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Hartwig</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prix ZAiKS, 1976
@@ -556,38 +611,40 @@
 Officier de l'ordre Polonia Restituta, 1997
 Prix du ministre polonais de la Culture pour l'ensemble de son œuvre, 2001
 Médaille d'or du Mérite culturel polonais Gloria Artis, 2005
-Chevalier de la Légion d'honneur, 2008[4]
-Grand-croix de l'ordre Polonia Restituta, 2011[5]
+Chevalier de la Légion d'honneur, 2008
+Grand-croix de l'ordre Polonia Restituta, 2011
 Quatre fois nommée pour le prix littéraire NIKE.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Julia_Hartwig</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Julia_Hartwig</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Z niedalekich podróży (reportage; LSW 1954)
@@ -638,31 +695,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Julia_Hartwig</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Julia_Hartwig</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Traductions (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elsa Triolet, Les Amants d'Avignon Kochankowie z Avignonu i inne opowiadania (Czytelnik 1949)
 Louis Aragon, Les Communistes Komuniści t. I-V (tłumaczenie zbiorowe; Czytelnik 1950-1951)
